--- a/docs/SFX.xlsx
+++ b/docs/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118A8D6D-455B-48C4-86DE-6A911BCDA2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB08ECCB-1110-4AE1-8648-2FEE578AB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SFX</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Player Damage</t>
   </si>
   <si>
-    <t>Enemie Damage</t>
-  </si>
-  <si>
     <t>Enemie Attack</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Player Attack (Cuerda pegando)</t>
   </si>
   <si>
-    <t>Barra de energia drenada</t>
-  </si>
-  <si>
     <t>Power Up encontrado</t>
   </si>
   <si>
@@ -81,6 +75,27 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Barra de energia agotado</t>
+  </si>
+  <si>
+    <t>Power Up Seleccionado</t>
+  </si>
+  <si>
+    <t>Enemie Death</t>
+  </si>
+  <si>
+    <t>Enemie Stun</t>
+  </si>
+  <si>
+    <t>1 por enemigo?</t>
+  </si>
+  <si>
+    <t>Grito de Jefe</t>
+  </si>
+  <si>
+    <t>Ojos orbitando nivel</t>
   </si>
 </sst>
 </file>
@@ -158,15 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,8 +192,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FF9999FF"/>
     </mruColors>
   </colors>
@@ -508,102 +525,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FDD6D-C82C-4084-AC01-0842CC8818AC}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="1" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="1" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/SFX.xlsx
+++ b/docs/SFX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAGS-heartbeat\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0fg7\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB08ECCB-1110-4AE1-8648-2FEE578AB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AD54D-2D1A-48EC-96CB-3797F1D3084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,12 +184,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,10 +535,10 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -550,13 +557,13 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="8"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,7 +573,7 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="8"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
@@ -577,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -586,14 +593,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -618,6 +625,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -632,19 +640,19 @@
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5"/>
@@ -654,5 +662,6 @@
     <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/SFX.xlsx
+++ b/docs/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0fg7\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AD54D-2D1A-48EC-96CB-3797F1D3084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9EFE7-2AB5-4553-860E-53C3F804A575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
   </bookViews>
@@ -102,8 +102,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -170,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,13 +192,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +544,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +566,13 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
@@ -573,7 +582,7 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
@@ -584,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -593,14 +602,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -625,7 +634,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -638,6 +646,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -649,7 +658,7 @@
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">

--- a/docs/SFX.xlsx
+++ b/docs/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0fg7\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9EFE7-2AB5-4553-860E-53C3F804A575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E90F6DA-573A-4E6C-AABC-2395C9A42CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
   </bookViews>
@@ -195,11 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FDD6D-C82C-4084-AC01-0842CC8818AC}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -602,14 +602,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -658,13 +658,16 @@
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/SFX.xlsx
+++ b/docs/SFX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0fg7\Documents\GitHub\LAGS-heartbeat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E90F6DA-573A-4E6C-AABC-2395C9A42CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E414F-A993-4B06-A628-BBD238B6013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7EE0A46-ACD0-4DE8-96D1-1C78C7D5E0DF}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +196,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +544,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,34 +566,34 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -601,73 +601,73 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
